--- a/test/course.xlsx
+++ b/test/course.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Works\LRHDT\project203\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF452121-677F-4532-8905-CA78F17F50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5BFB90-0328-4195-B79A-BD831839D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -79,12 +79,6 @@
     <t>LAWS121</t>
   </si>
   <si>
-    <t>POLS130</t>
-  </si>
-  <si>
-    <t>POLS131</t>
-  </si>
-  <si>
     <t>POLS132</t>
   </si>
   <si>
@@ -277,12 +271,6 @@
     <t>Pháp luật Việt Nam đại cương</t>
   </si>
   <si>
-    <t>Những nguyên lý cơ bản của Chủ nghĩa Mác</t>
-  </si>
-  <si>
-    <t>Đường lối cách mạng của Đảng Cộng sản VN</t>
-  </si>
-  <si>
     <t>Tư tưởng Hồ Chí Minh</t>
   </si>
   <si>
@@ -551,13 +539,37 @@
   </si>
   <si>
     <t>Recommend to learn in the first quarter of second year/and try to master the knowledge because it's a CIT foudation core subjects</t>
+  </si>
+  <si>
+    <t>POLS133</t>
+  </si>
+  <si>
+    <t>Triết học Mác - Lênin</t>
+  </si>
+  <si>
+    <t>POLS134</t>
+  </si>
+  <si>
+    <t>Kinh tế chính trị Mác - Lênin</t>
+  </si>
+  <si>
+    <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội khoa học</t>
+  </si>
+  <si>
+    <t>POLS136</t>
+  </si>
+  <si>
+    <t>POLS135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -598,6 +610,12 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -654,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -712,6 +730,11 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1029,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,221 +1099,221 @@
         <v>18</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="12">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
       <c r="F2" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>85</v>
+        <v>173</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="C3" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
       </c>
       <c r="F3" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>86</v>
+        <v>175</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="C4" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>87</v>
+      <c r="A5" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>88</v>
+      <c r="A6" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="C6" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C8" s="12">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="9">
+        <v>144</v>
+      </c>
+      <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="9">
+        <v>151</v>
+      </c>
+      <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C10" s="12">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -1302,67 +1325,67 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C11" s="12">
         <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -1380,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
+      <c r="A14" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
@@ -1406,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
+      <c r="A15" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C15" s="12">
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
@@ -1432,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C16" s="12">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
@@ -1458,73 +1481,73 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C17" s="12">
         <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E17" s="9">
         <v>0</v>
       </c>
       <c r="F17" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C18" s="12">
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="13">
+        <v>95</v>
+      </c>
+      <c r="C19" s="12">
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
@@ -1536,73 +1559,73 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
+      <c r="A20" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="13">
+        <v>96</v>
+      </c>
+      <c r="C20" s="12">
         <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="B21" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C21" s="13">
         <v>4</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E21" s="9">
         <v>0</v>
       </c>
       <c r="F21" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
@@ -1619,16 +1642,16 @@
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C23" s="13">
         <v>4</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
@@ -1640,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C24" s="13">
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
@@ -1666,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C25" s="13">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
@@ -1697,68 +1720,68 @@
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C26" s="13">
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C27" s="13">
         <v>4</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C28" s="13">
         <v>4</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
@@ -1775,146 +1798,146 @@
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C29" s="13">
         <v>4</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
       </c>
       <c r="F29" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C30" s="13">
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>8</v>
+      </c>
+      <c r="G31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>8</v>
+      </c>
+      <c r="G32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>8</v>
-      </c>
-      <c r="G31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="B33" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="12">
-        <v>4</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>8</v>
-      </c>
-      <c r="G32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="12">
-        <v>4</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>8</v>
-      </c>
-      <c r="G33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34" s="12">
         <v>4</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
@@ -1926,73 +1949,73 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C35" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C36" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>42</v>
+      <c r="H36" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C37" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
@@ -2009,68 +2032,68 @@
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C38" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>76</v>
+      <c r="H38" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C39" s="12">
         <v>4</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
       </c>
       <c r="F39" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C40" s="12">
         <v>4</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
@@ -2082,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="14">
-        <v>3</v>
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="12">
+        <v>4</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
@@ -2107,22 +2130,22 @@
       <c r="G41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>39</v>
+      <c r="H41" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C42" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
@@ -2134,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="12">
-        <v>1</v>
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="14">
+        <v>3</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
@@ -2159,74 +2182,74 @@
       <c r="G43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>78</v>
+      <c r="H43" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C44" s="12">
         <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G44" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C45" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C46" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
@@ -2238,73 +2261,73 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C47" s="12">
         <v>4</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C48" s="12">
         <v>4</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C49" s="12">
         <v>4</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E49" s="9">
         <v>0</v>
@@ -2316,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C50" s="12">
         <v>4</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
@@ -2342,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="C51" s="12">
         <v>4</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
@@ -2368,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>134</v>
+        <v>55</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C52" s="12">
         <v>4</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
@@ -2394,73 +2417,73 @@
         <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C53" s="12">
         <v>4</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E53" s="9">
         <v>0</v>
       </c>
       <c r="F53" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C54" s="12">
         <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C55" s="12">
         <v>4</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
@@ -2472,73 +2495,73 @@
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C56" s="12">
         <v>4</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C57" s="12">
         <v>4</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
       <c r="F57" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C58" s="12">
         <v>4</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
@@ -2555,16 +2578,16 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C59" s="12">
         <v>4</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E59" s="9">
         <v>0</v>
@@ -2576,21 +2599,21 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C60" s="12">
         <v>4</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
@@ -2602,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C61" s="12">
         <v>4</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E61" s="9">
         <v>0</v>
@@ -2628,58 +2651,110 @@
         <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C62" s="12">
         <v>4</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>145</v>
+        <v>66</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="C63" s="12">
         <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
       </c>
       <c r="F63" s="9">
+        <v>8</v>
+      </c>
+      <c r="G63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="12">
+        <v>4</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
         <v>10</v>
       </c>
-      <c r="G63" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="G64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="12">
+        <v>4</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
+        <v>10</v>
+      </c>
+      <c r="G65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>11</v>
       </c>
     </row>
